--- a/src/predicciones/holt_winters/producto_21.xlsx
+++ b/src/predicciones/holt_winters/producto_21.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1551 +404,1551 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
-        <v>0.9920668322154472</v>
+        <v>0.9928263086603641</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44936</v>
       </c>
       <c r="B3">
-        <v>0.9899010936578807</v>
+        <v>0.9927817107556826</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44941</v>
       </c>
       <c r="B4">
-        <v>0.9899001336055593</v>
+        <v>0.9919860810425788</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44942</v>
       </c>
       <c r="B5">
-        <v>0.9920760346322006</v>
+        <v>0.9912948614067969</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44947</v>
       </c>
       <c r="B6">
-        <v>1.987729633215154</v>
+        <v>1.991942590715066</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44950</v>
       </c>
       <c r="B7">
-        <v>0.9898981395512325</v>
+        <v>0.9903893066623822</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44951</v>
       </c>
       <c r="B8">
-        <v>1.97765348027799</v>
+        <v>1.98549892892459</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44956</v>
       </c>
       <c r="B9">
-        <v>0.9819932473449317</v>
+        <v>0.9832581335655941</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44959</v>
       </c>
       <c r="B10">
-        <v>0.9798275087873651</v>
+        <v>0.9832135356609125</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44964</v>
       </c>
       <c r="B11">
-        <v>0.9798265487350437</v>
+        <v>0.9824179059478088</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44968</v>
       </c>
       <c r="B12">
-        <v>0.9820024497616853</v>
+        <v>0.9817266863120269</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44970</v>
       </c>
       <c r="B13">
-        <v>1.977656048344639</v>
+        <v>1.982374415620296</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44973</v>
       </c>
       <c r="B14">
-        <v>0.9798245546807169</v>
+        <v>0.9808211315676122</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44974</v>
       </c>
       <c r="B15">
-        <v>1.967579895407474</v>
+        <v>1.97593075382982</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44978</v>
       </c>
       <c r="B16">
-        <v>0.9719196624744161</v>
+        <v>0.9736899584708243</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44980</v>
       </c>
       <c r="B17">
-        <v>0.9697539239168496</v>
+        <v>0.9736453605661427</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44984</v>
       </c>
       <c r="B18">
-        <v>0.9697529638645281</v>
+        <v>0.9728497308530389</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44985</v>
       </c>
       <c r="B19">
-        <v>0.9719288648911697</v>
+        <v>0.972158511217257</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44991</v>
       </c>
       <c r="B20">
-        <v>1.967582463474124</v>
+        <v>1.972806240525526</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44995</v>
       </c>
       <c r="B21">
-        <v>0.9697509698102014</v>
+        <v>0.9712529564728423</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44998</v>
       </c>
       <c r="B22">
-        <v>1.957506310536959</v>
+        <v>1.96636257873505</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45000</v>
       </c>
       <c r="B23">
-        <v>0.9618460776039005</v>
+        <v>0.9641217833760544</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45002</v>
       </c>
       <c r="B24">
-        <v>0.959680339046334</v>
+        <v>0.9640771854713728</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45005</v>
       </c>
       <c r="B25">
-        <v>0.9596793789940126</v>
+        <v>0.963281555758269</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45006</v>
       </c>
       <c r="B26">
-        <v>0.9618552800206541</v>
+        <v>0.9625903361224871</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45009</v>
       </c>
       <c r="B27">
-        <v>1.957508878603608</v>
+        <v>1.963238065430756</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45011</v>
       </c>
       <c r="B28">
-        <v>0.959677384939686</v>
+        <v>0.9616847813780723</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45013</v>
       </c>
       <c r="B29">
-        <v>1.947432725666443</v>
+        <v>1.95679440364028</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45015</v>
       </c>
       <c r="B30">
-        <v>0.9517724927333849</v>
+        <v>0.9545536082812844</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45019</v>
       </c>
       <c r="B31">
-        <v>0.9496067541758184</v>
+        <v>0.9545090103766029</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45020</v>
       </c>
       <c r="B32">
-        <v>0.949605794123497</v>
+        <v>0.9537133806634991</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45022</v>
       </c>
       <c r="B33">
-        <v>0.9517816951501386</v>
+        <v>0.9530221610277172</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45032</v>
       </c>
       <c r="B34">
-        <v>1.947435293733093</v>
+        <v>1.953669890335986</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45036</v>
       </c>
       <c r="B35">
-        <v>0.9496038000691704</v>
+        <v>0.9521166062833025</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45037</v>
       </c>
       <c r="B36">
-        <v>1.937359140795928</v>
+        <v>1.94722622854551</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45042</v>
       </c>
       <c r="B37">
-        <v>0.9416989078628694</v>
+        <v>0.9449854331865145</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45051</v>
       </c>
       <c r="B38">
-        <v>0.9395331693053028</v>
+        <v>0.9449408352818329</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45053</v>
       </c>
       <c r="B39">
-        <v>0.9395322092529814</v>
+        <v>0.9441452055687292</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45057</v>
       </c>
       <c r="B40">
-        <v>0.941708110279623</v>
+        <v>0.9434539859329473</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45059</v>
       </c>
       <c r="B41">
-        <v>1.937361708862577</v>
+        <v>1.944101715241217</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45060</v>
       </c>
       <c r="B42">
-        <v>0.9395302151986549</v>
+        <v>0.9425484311885326</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45061</v>
       </c>
       <c r="B43">
-        <v>1.927285555925412</v>
+        <v>1.93765805345074</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45064</v>
       </c>
       <c r="B44">
-        <v>0.9316253229923538</v>
+        <v>0.9354172580917446</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45065</v>
       </c>
       <c r="B45">
-        <v>0.9294595844347873</v>
+        <v>0.935372660187063</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45071</v>
       </c>
       <c r="B46">
-        <v>0.9294586243824658</v>
+        <v>0.9345770304739592</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45072</v>
       </c>
       <c r="B47">
-        <v>0.9316345254091074</v>
+        <v>0.9338858108381773</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45073</v>
       </c>
       <c r="B48">
-        <v>1.927288123992061</v>
+        <v>1.934533540146447</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45074</v>
       </c>
       <c r="B49">
-        <v>0.9294566303281393</v>
+        <v>0.9329802560937627</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45078</v>
       </c>
       <c r="B50">
-        <v>1.917211971054896</v>
+        <v>1.928089878355971</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45080</v>
       </c>
       <c r="B51">
-        <v>0.9215517381218384</v>
+        <v>0.9258490829969748</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45084</v>
       </c>
       <c r="B52">
-        <v>0.9193859995642717</v>
+        <v>0.9258044850922931</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45086</v>
       </c>
       <c r="B53">
-        <v>0.9193850395119503</v>
+        <v>0.9250088553791893</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45089</v>
       </c>
       <c r="B54">
-        <v>0.9215609405385918</v>
+        <v>0.9243176357434074</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45096</v>
       </c>
       <c r="B55">
-        <v>1.917214539121546</v>
+        <v>1.924965365051677</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45099</v>
       </c>
       <c r="B56">
-        <v>0.9193830454576237</v>
+        <v>0.9234120809989927</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45100</v>
       </c>
       <c r="B57">
-        <v>1.907138386184381</v>
+        <v>1.918521703261201</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45102</v>
       </c>
       <c r="B58">
-        <v>0.9114781532513229</v>
+        <v>0.9162809079022047</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45104</v>
       </c>
       <c r="B59">
-        <v>0.9093124146937563</v>
+        <v>0.9162363099975231</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45105</v>
       </c>
       <c r="B60">
-        <v>0.9093114546414347</v>
+        <v>0.9154406802844194</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45106</v>
       </c>
       <c r="B61">
-        <v>0.9114873556680763</v>
+        <v>0.9147494606486375</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45108</v>
       </c>
       <c r="B62">
-        <v>1.90714095425103</v>
+        <v>1.915397189956907</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45110</v>
       </c>
       <c r="B63">
-        <v>0.9093094605871082</v>
+        <v>0.9138439059042228</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45111</v>
       </c>
       <c r="B64">
-        <v>1.897064801313865</v>
+        <v>1.90895352816643</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45112</v>
       </c>
       <c r="B65">
-        <v>0.9014045683808073</v>
+        <v>0.9067127328074349</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45119</v>
       </c>
       <c r="B66">
-        <v>0.8992388298232408</v>
+        <v>0.9066681349027533</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45120</v>
       </c>
       <c r="B67">
-        <v>0.8992378697709191</v>
+        <v>0.9058725051896495</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45126</v>
       </c>
       <c r="B68">
-        <v>0.9014137707975607</v>
+        <v>0.9051812855538676</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45131</v>
       </c>
       <c r="B69">
-        <v>1.897067369380514</v>
+        <v>1.905829014862137</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45135</v>
       </c>
       <c r="B70">
-        <v>0.8992358757165926</v>
+        <v>0.9042757308094529</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45137</v>
       </c>
       <c r="B71">
-        <v>1.88699121644335</v>
+        <v>1.899385353071661</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45139</v>
       </c>
       <c r="B72">
-        <v>0.8913309835102917</v>
+        <v>0.897144557712665</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45142</v>
       </c>
       <c r="B73">
-        <v>0.8891652449527252</v>
+        <v>0.8970999598079834</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45143</v>
       </c>
       <c r="B74">
-        <v>0.8891642849004038</v>
+        <v>0.8963043300948795</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45144</v>
       </c>
       <c r="B75">
-        <v>0.8913401859270451</v>
+        <v>0.8956131104590976</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45152</v>
       </c>
       <c r="B76">
-        <v>1.886993784509999</v>
+        <v>1.896260839767367</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45156</v>
       </c>
       <c r="B77">
-        <v>0.889162290846077</v>
+        <v>0.894707555714683</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45161</v>
       </c>
       <c r="B78">
-        <v>1.876917631572834</v>
+        <v>1.889817177976891</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45172</v>
       </c>
       <c r="B79">
-        <v>0.8812573986397761</v>
+        <v>0.8875763826178951</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45173</v>
       </c>
       <c r="B80">
-        <v>0.8790916600822096</v>
+        <v>0.8875317847132135</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45174</v>
       </c>
       <c r="B81">
-        <v>0.8790907000298882</v>
+        <v>0.8867361550001097</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45175</v>
       </c>
       <c r="B82">
-        <v>0.8812666010565298</v>
+        <v>0.8860449353643277</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45178</v>
       </c>
       <c r="B83">
-        <v>1.876920199639483</v>
+        <v>1.886692664672597</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45180</v>
       </c>
       <c r="B84">
-        <v>0.8790887059755614</v>
+        <v>0.885139380619913</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45181</v>
       </c>
       <c r="B85">
-        <v>1.866844046702319</v>
+        <v>1.880249002882121</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45183</v>
       </c>
       <c r="B86">
-        <v>0.8711838137692606</v>
+        <v>0.8780082075231251</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45184</v>
       </c>
       <c r="B87">
-        <v>0.8690180752116941</v>
+        <v>0.8779636096184436</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45185</v>
       </c>
       <c r="B88">
-        <v>0.8690171151593726</v>
+        <v>0.8771679799053398</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45191</v>
       </c>
       <c r="B89">
-        <v>0.8711930161860142</v>
+        <v>0.8764767602695578</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45194</v>
       </c>
       <c r="B90">
-        <v>1.866846614768968</v>
+        <v>1.877124489577827</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45196</v>
       </c>
       <c r="B91">
-        <v>0.8690151211050459</v>
+        <v>0.8755712055251431</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45201</v>
       </c>
       <c r="B92">
-        <v>1.856770461831803</v>
+        <v>1.870680827787351</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45209</v>
       </c>
       <c r="B93">
-        <v>0.861110228898745</v>
+        <v>0.8684400324283552</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45212</v>
       </c>
       <c r="B94">
-        <v>0.8589444903411785</v>
+        <v>0.8683954345236736</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45217</v>
       </c>
       <c r="B95">
-        <v>0.8589435302888571</v>
+        <v>0.8675998048105699</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45218</v>
       </c>
       <c r="B96">
-        <v>0.8611194313154986</v>
+        <v>0.866908585174788</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45222</v>
       </c>
       <c r="B97">
-        <v>1.856773029898453</v>
+        <v>1.867556314483057</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45228</v>
       </c>
       <c r="B98">
-        <v>0.8589415362345305</v>
+        <v>0.8660030304303732</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45234</v>
       </c>
       <c r="B99">
-        <v>1.846696876961288</v>
+        <v>1.861112652692581</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45235</v>
       </c>
       <c r="B100">
-        <v>0.8510366440282294</v>
+        <v>0.8588718573335853</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45237</v>
       </c>
       <c r="B101">
-        <v>0.8488709054706629</v>
+        <v>0.8588272594289037</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45242</v>
       </c>
       <c r="B102">
-        <v>0.8488699454183415</v>
+        <v>0.8580316297157999</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45243</v>
       </c>
       <c r="B103">
-        <v>0.851045846444983</v>
+        <v>0.857340410080018</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45244</v>
       </c>
       <c r="B104">
-        <v>1.846699445027937</v>
+        <v>1.857988139388287</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45245</v>
       </c>
       <c r="B105">
-        <v>0.8488679513640149</v>
+        <v>0.8564348553356033</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45246</v>
       </c>
       <c r="B106">
-        <v>1.836623292090772</v>
+        <v>1.851544477597811</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45248</v>
       </c>
       <c r="B107">
-        <v>0.840963059157714</v>
+        <v>0.8493036822388154</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45249</v>
       </c>
       <c r="B108">
-        <v>0.8387973206001473</v>
+        <v>0.8492590843341338</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45251</v>
       </c>
       <c r="B109">
-        <v>0.8387963605478259</v>
+        <v>0.84846345462103</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45252</v>
       </c>
       <c r="B110">
-        <v>0.8409722615744675</v>
+        <v>0.8477722349852481</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45253</v>
       </c>
       <c r="B111">
-        <v>1.836625860157421</v>
+        <v>1.848419964293517</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45266</v>
       </c>
       <c r="B112">
-        <v>0.8387943664934994</v>
+        <v>0.8468666802408334</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45270</v>
       </c>
       <c r="B113">
-        <v>1.826549707220257</v>
+        <v>1.841976302503041</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45271</v>
       </c>
       <c r="B114">
-        <v>0.8308894742871984</v>
+        <v>0.8397355071440454</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45278</v>
       </c>
       <c r="B115">
-        <v>0.8287237357296318</v>
+        <v>0.8396909092393638</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45282</v>
       </c>
       <c r="B116">
-        <v>0.8287227756773103</v>
+        <v>0.8388952795262601</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45283</v>
       </c>
       <c r="B117">
-        <v>0.8308986767039519</v>
+        <v>0.8382040598904782</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45284</v>
       </c>
       <c r="B118">
-        <v>1.826552275286906</v>
+        <v>1.838851789198747</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45286</v>
       </c>
       <c r="B119">
-        <v>0.8287207816229838</v>
+        <v>0.8372985051460634</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45293</v>
       </c>
       <c r="B120">
-        <v>1.816476122349741</v>
+        <v>1.832408127408271</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45296</v>
       </c>
       <c r="B121">
-        <v>0.8208158894166828</v>
+        <v>0.8301673320492755</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45297</v>
       </c>
       <c r="B122">
-        <v>0.8186501508591163</v>
+        <v>0.8301227341445939</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45301</v>
       </c>
       <c r="B123">
-        <v>0.8186491908067948</v>
+        <v>0.8293271044314902</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45302</v>
       </c>
       <c r="B124">
-        <v>0.8208250918334363</v>
+        <v>0.8286358847957083</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45303</v>
       </c>
       <c r="B125">
-        <v>1.81647869041639</v>
+        <v>1.829283614103978</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45304</v>
       </c>
       <c r="B126">
-        <v>0.8186471967524682</v>
+        <v>0.8277303300512936</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45305</v>
       </c>
       <c r="B127">
-        <v>1.806402537479225</v>
+        <v>1.822839952313501</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45306</v>
       </c>
       <c r="B128">
-        <v>0.8107423045461672</v>
+        <v>0.8205991569545057</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45310</v>
       </c>
       <c r="B129">
-        <v>0.8085765659886007</v>
+        <v>0.820554559049824</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45315</v>
       </c>
       <c r="B130">
-        <v>0.8085756059362792</v>
+        <v>0.8197589293367202</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45322</v>
       </c>
       <c r="B131">
-        <v>0.8107515069629208</v>
+        <v>0.8190677097009383</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45323</v>
       </c>
       <c r="B132">
-        <v>1.806405105545875</v>
+        <v>1.819715439009208</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45324</v>
       </c>
       <c r="B133">
-        <v>0.8085736118819526</v>
+        <v>0.8181621549565237</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45325</v>
       </c>
       <c r="B134">
-        <v>1.79632895260871</v>
+        <v>1.813271777218731</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45328</v>
       </c>
       <c r="B135">
-        <v>0.8006687196756518</v>
+        <v>0.8110309818597357</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45331</v>
       </c>
       <c r="B136">
-        <v>0.7985029811180852</v>
+        <v>0.8109863839550541</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45332</v>
       </c>
       <c r="B137">
-        <v>0.7985020210657636</v>
+        <v>0.8101907542419503</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45333</v>
       </c>
       <c r="B138">
-        <v>0.8006779220924052</v>
+        <v>0.8094995346061684</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45334</v>
       </c>
       <c r="B139">
-        <v>1.796331520675359</v>
+        <v>1.810147263914438</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45339</v>
       </c>
       <c r="B140">
-        <v>0.7985000270114371</v>
+        <v>0.8085939798617537</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45346</v>
       </c>
       <c r="B141">
-        <v>1.786255367738194</v>
+        <v>1.803703602123961</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45348</v>
       </c>
       <c r="B142">
-        <v>0.7905951348051362</v>
+        <v>0.8014628067649658</v>
       </c>
       <c r="C142">
         <v>1</v>
